--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum_w-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum_w-raw-ss-lookup-tabbed.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,78 +574,6 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,7 +581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,78 +799,6 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -950,7 +806,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,78 +1024,6 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1247,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1465,78 +1249,6 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1544,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1762,78 +1474,6 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1841,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2059,78 +1699,6 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum_w-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum_w-raw-ss-lookup-tabbed.xlsx
@@ -12,7 +12,10 @@
     <sheet name="5.8-5.11" sheetId="3" r:id="rId3"/>
     <sheet name="6.0-6.5" sheetId="4" r:id="rId4"/>
     <sheet name="6.6-6.11" sheetId="5" r:id="rId5"/>
-    <sheet name="7.0-9.3" sheetId="6" r:id="rId6"/>
+    <sheet name="7.0-7.5" sheetId="6" r:id="rId6"/>
+    <sheet name="7.6-7.11" sheetId="7" r:id="rId7"/>
+    <sheet name="8.0-8.5" sheetId="8" r:id="rId8"/>
+    <sheet name="8.6-9.3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -379,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +422,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +510,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +518,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +534,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -620,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -636,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -652,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -660,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -684,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -708,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -716,7 +719,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -732,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
@@ -748,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -756,7 +759,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -764,7 +767,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +775,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +783,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -853,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -861,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -869,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -877,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -885,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -893,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -901,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -909,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -917,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -925,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -933,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -941,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -949,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -957,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -965,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -973,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -981,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -997,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1005,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1013,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1021,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1102,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1110,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -1118,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -1126,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -1134,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1142,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -1158,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1166,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1174,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -1182,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1190,7 +1193,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1198,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -1206,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1222,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1238,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1246,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1287,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1295,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1303,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1311,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1343,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1351,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1359,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1383,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -1391,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -1399,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -1407,7 +1410,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -1415,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -1423,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -1431,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1439,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -1447,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1463,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1471,7 +1474,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1512,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1528,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1536,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1552,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1560,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1568,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1576,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -1584,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1600,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -1608,7 +1611,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -1616,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -1624,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1632,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1640,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1648,7 +1651,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -1656,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -1664,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -1672,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -1680,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1688,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1696,7 +1699,682 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
